--- a/AccController/AccController.Web/Content/templates/export/result/ais/TaoMoiDonVi.xlsx
+++ b/AccController/AccController.Web/Content/templates/export/result/ais/TaoMoiDonVi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\ais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="NewOU" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">NewOU!$A$2:$F$2</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">NewOU!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tên phòng ban</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>{Field:"Priority"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{Field:"Id"}</t>
+  </si>
+  <si>
+    <t>Kq</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -4153,12 +4165,15 @@
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5956,9 +5971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5967,10 +5984,10 @@
     <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="6.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5989,8 +6006,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6009,6 +6035,9 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
